--- a/results/Comparison_correct.xlsx
+++ b/results/Comparison_correct.xlsx
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1320,7 +1320,9 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8">
+        <v>0.49731784117646999</v>
+      </c>
       <c r="K8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1509,7 @@
       </c>
       <c r="G14">
         <f>AVERAGE(G6:G13)</f>
-        <v>0.70999855902255615</v>
+        <v>0.67455177271487521</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>32</v>
@@ -1624,7 +1626,9 @@
       <c r="F24" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24">
+        <v>3.2803083155080202E-2</v>
+      </c>
       <c r="K24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1811,7 +1815,7 @@
       </c>
       <c r="G30">
         <f>AVERAGE(G22:G29)</f>
-        <v>0.51246714188136977</v>
+        <v>0.43252313209365484</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>32</v>

--- a/results/Comparison_correct.xlsx
+++ b/results/Comparison_correct.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26820" windowHeight="14520" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29280" windowHeight="16640" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
   <si>
     <t>USING DECISION TREE AS CLASSIFIER</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>AUCPR</t>
+  </si>
+  <si>
+    <t>olfaction</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:P31"/>
+  <dimension ref="C2:P33"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -806,390 +809,424 @@
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="G15">
+        <v>10.283752478134099</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="O15">
+        <v>9.8331481049562495</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f>AVERAGE(D7:D14)</f>
         <v>501.84252297246979</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f>AVERAGE(E7:E14)</f>
         <v>530.29193202008935</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f>AVERAGE(F7:F14)</f>
         <v>553.98639636904716</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <f>AVERAGE(G7:G14)</f>
         <v>483.74530451860022</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <f>AVERAGE(L7:L14)</f>
         <v>464.68304550595195</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <f>AVERAGE(M7:M14)</f>
         <v>457.69574496279802</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <f>AVERAGE(N7:N14)</f>
         <v>597.70906541170689</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <f>AVERAGE(O7:O14)</f>
         <v>459.64458513020753</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="C20" s="3" t="s">
+    <row r="21" spans="3:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1449696.4811587499</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1508252.23498125</v>
-      </c>
-      <c r="F23">
-        <v>1022735.09378</v>
-      </c>
-      <c r="G23" s="1">
-        <v>969418.82230912498</v>
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="4">
-        <v>532364.60696374997</v>
-      </c>
-      <c r="M23" s="6">
-        <v>531129.18718374998</v>
-      </c>
-      <c r="N23">
-        <v>522310.81431062502</v>
-      </c>
-      <c r="O23">
-        <v>519432.86542062397</v>
+        <v>5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4">
-        <v>2114498.7851112499</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1904021.83070375</v>
+        <v>1449696.4811587499</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1508252.23498125</v>
       </c>
       <c r="F24">
-        <v>2262792.3246825002</v>
-      </c>
-      <c r="G24">
-        <v>1921188.9982517499</v>
+        <v>1022735.09378</v>
+      </c>
+      <c r="G24" s="1">
+        <v>969418.82230912498</v>
       </c>
       <c r="K24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" s="4">
-        <v>974421.03738500003</v>
+        <v>532364.60696374997</v>
       </c>
       <c r="M24" s="6">
-        <v>915283.11890312505</v>
+        <v>531129.18718374998</v>
       </c>
       <c r="N24">
-        <v>941780.30508375005</v>
+        <v>522310.81431062502</v>
       </c>
       <c r="O24">
-        <v>942517.11103625002</v>
+        <v>519432.86542062397</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6">
-        <v>210.33799124999999</v>
-      </c>
-      <c r="E25" s="6">
-        <v>4.8013174999999997</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3.2516449999999999</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2114498.7851112499</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1904021.83070375</v>
+      </c>
+      <c r="F25">
+        <v>2262792.3246825002</v>
       </c>
       <c r="G25">
-        <v>3.5762149999999999</v>
+        <v>1921188.9982517499</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="4">
-        <v>2.3062900000000002</v>
+        <v>974421.03738500003</v>
       </c>
       <c r="M25" s="6">
-        <v>1.5901125</v>
+        <v>915283.11890312505</v>
       </c>
       <c r="N25">
-        <v>1.8978412499999999</v>
+        <v>941780.30508375005</v>
       </c>
       <c r="O25">
-        <v>1.956415</v>
+        <v>942517.11103625002</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="6">
-        <v>210.27550500000001</v>
+        <v>210.33799124999999</v>
       </c>
       <c r="E26" s="6">
-        <v>4.1802524999999999</v>
-      </c>
-      <c r="F26">
-        <v>5.7448362499999996</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3.6086299999999998</v>
+        <v>4.8013174999999997</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.2516449999999999</v>
+      </c>
+      <c r="G26">
+        <v>3.5762149999999999</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" s="4">
-        <v>7.3471374999999997</v>
+        <v>2.3062900000000002</v>
       </c>
       <c r="M26" s="6">
-        <v>4.7361662500000001</v>
+        <v>1.5901125</v>
       </c>
       <c r="N26">
-        <v>5.3956675000000001</v>
+        <v>1.8978412499999999</v>
       </c>
       <c r="O26">
-        <v>6.0491887499999999</v>
+        <v>1.956415</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4">
-        <v>15357.259082500001</v>
+        <v>13</v>
+      </c>
+      <c r="D27" s="6">
+        <v>210.27550500000001</v>
       </c>
       <c r="E27" s="6">
-        <v>13034.343416874999</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
+        <v>4.1802524999999999</v>
+      </c>
+      <c r="F27">
+        <v>5.7448362499999996</v>
       </c>
       <c r="G27" s="1">
-        <v>12721.214303125</v>
+        <v>3.6086299999999998</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27" s="4">
-        <v>7323.4445068750001</v>
+        <v>7.3471374999999997</v>
       </c>
       <c r="M27" s="6">
-        <v>6601.7325412500004</v>
-      </c>
-      <c r="N27" t="s">
-        <v>16</v>
+        <v>4.7361662500000001</v>
+      </c>
+      <c r="N27">
+        <v>5.3956675000000001</v>
       </c>
       <c r="O27">
-        <v>6615.5920268749996</v>
+        <v>6.0491887499999999</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="6">
-        <v>20866.320916249999</v>
+        <v>14</v>
+      </c>
+      <c r="D28" s="4">
+        <v>15357.259082500001</v>
       </c>
       <c r="E28" s="6">
-        <v>20135.445213125</v>
-      </c>
-      <c r="F28">
-        <v>19113.970890000001</v>
+        <v>13034.343416874999</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
       </c>
       <c r="G28" s="1">
-        <v>18963.374284375001</v>
+        <v>12721.214303125</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L28" s="4">
-        <v>9864.7924050000001</v>
+        <v>7323.4445068750001</v>
       </c>
       <c r="M28" s="6">
-        <v>9742.48709375</v>
+        <v>6601.7325412500004</v>
       </c>
       <c r="N28" t="s">
         <v>16</v>
       </c>
       <c r="O28">
-        <v>9678.5385518750008</v>
+        <v>6615.5920268749996</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1.5483442857142899</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1.5573628571428599</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.5270300000000001</v>
-      </c>
-      <c r="G29">
-        <v>1.52870171428571</v>
+        <v>17</v>
+      </c>
+      <c r="D29" s="6">
+        <v>20866.320916249999</v>
+      </c>
+      <c r="E29" s="6">
+        <v>20135.445213125</v>
+      </c>
+      <c r="F29">
+        <v>19113.970890000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>18963.374284375001</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="6">
-        <v>1.35214428571429</v>
+        <v>17</v>
+      </c>
+      <c r="L29" s="4">
+        <v>9864.7924050000001</v>
       </c>
       <c r="M29" s="6">
-        <v>1.3530150000000001</v>
-      </c>
-      <c r="N29">
-        <v>1.35027928571429</v>
+        <v>9742.48709375</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
       </c>
       <c r="O29">
-        <v>1.34330857142857</v>
+        <v>9678.5385518750008</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.5483442857142899</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.5573628571428599</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.5270300000000001</v>
+      </c>
+      <c r="G30">
+        <v>1.52870171428571</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1.35214428571429</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1.3530150000000001</v>
+      </c>
+      <c r="N30">
+        <v>1.35027928571429</v>
+      </c>
+      <c r="O30">
+        <v>1.34330857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="4">
         <f>3.53917960778694*10^7</f>
         <v>35391796.0778694</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <f>4.28651928502041*10^7</f>
         <v>42865192.850204103</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <f>3.61565476474173*10^7</f>
         <v>36156547.647417299</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>171559164.25415099</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K31" t="s">
         <v>19</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <f>3.95277925178316*10^7</f>
         <v>39527792.517831601</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M31" s="4">
         <f>3.15486468098213*10^7</f>
         <v>31548646.8098213</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <f>4.20245017582565*10^7</f>
         <v>42024501.758256495</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O31" s="7">
         <v>171559164.25415099</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="G32">
+        <v>416.80087385811402</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="O32">
+        <v>348.323910787172</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31">
-        <f>AVERAGE(D23:D30)</f>
+      <c r="D33">
+        <f>AVERAGE(D24:D31)</f>
         <v>4874079.6357473359</v>
       </c>
-      <c r="E31">
-        <f>AVERAGE(E23:E30)</f>
+      <c r="E33">
+        <f>AVERAGE(E24:E31)</f>
         <v>5788830.905431495</v>
       </c>
-      <c r="F31">
-        <f>AVERAGE(F23:F30)</f>
+      <c r="F33">
+        <f>AVERAGE(F24:F31)</f>
         <v>5637314.222897293</v>
       </c>
-      <c r="G31">
-        <f>AVERAGE(G23:G30)</f>
+      <c r="G33">
+        <f>AVERAGE(G24:G31)</f>
         <v>21810183.172105759</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L31">
-        <f>AVERAGE(L23:L30)</f>
+      <c r="L33">
+        <f>AVERAGE(L24:L31)</f>
         <v>5131472.1755830012</v>
       </c>
-      <c r="M31">
-        <f>AVERAGE(M23:M30)</f>
+      <c r="M33">
+        <f>AVERAGE(M24:M31)</f>
         <v>4126426.3768546158</v>
       </c>
-      <c r="N31">
-        <f>AVERAGE(N23:N29)</f>
+      <c r="N33">
+        <f>AVERAGE(N24:N30)</f>
         <v>292819.95263648219</v>
       </c>
-      <c r="O31">
-        <f>AVERAGE(O23:O29)</f>
+      <c r="O33">
+        <f>AVERAGE(O24:O30)</f>
         <v>211179.06513542077</v>
       </c>
     </row>
@@ -1207,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/results/Comparison_correct.xlsx
+++ b/results/Comparison_correct.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29280" windowHeight="16640" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1372,7 +1372,9 @@
       <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8">
+        <v>0.67109043262032098</v>
+      </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C9" s="8" t="s">
@@ -1515,6 +1517,9 @@
       <c r="F13" t="s">
         <v>25</v>
       </c>
+      <c r="G13">
+        <v>0.75017829900990096</v>
+      </c>
       <c r="K13" s="8" t="s">
         <v>31</v>
       </c>
@@ -1526,6 +1531,9 @@
       </c>
       <c r="N13" t="s">
         <v>25</v>
+      </c>
+      <c r="O13">
+        <v>0.82573259009900901</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.15">
@@ -1546,7 +1554,7 @@
       </c>
       <c r="G14">
         <f>AVERAGE(G6:G13)</f>
-        <v>0.67455177271487521</v>
+        <v>0.68535556218559324</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>32</v>
@@ -1565,7 +1573,7 @@
       </c>
       <c r="O14">
         <f>AVERAGE(O6:O13)</f>
-        <v>0.80401680104483364</v>
+        <v>0.78812957542049966</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.15">
@@ -1678,7 +1686,9 @@
       <c r="N24" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="1"/>
+      <c r="O24">
+        <v>7.0063683957219194E-2</v>
+      </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C25" s="8" t="s">
@@ -1821,6 +1831,9 @@
       <c r="F29" t="s">
         <v>25</v>
       </c>
+      <c r="G29">
+        <v>0.11124575544554401</v>
+      </c>
       <c r="K29" s="8" t="s">
         <v>31</v>
       </c>
@@ -1832,6 +1845,9 @@
       </c>
       <c r="N29" t="s">
         <v>25</v>
+      </c>
+      <c r="O29">
+        <v>0.38538094950495</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.15">
@@ -1852,7 +1868,7 @@
       </c>
       <c r="G30">
         <f>AVERAGE(G22:G29)</f>
-        <v>0.43252313209365484</v>
+        <v>0.38662636400106759</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>32</v>
@@ -1871,7 +1887,7 @@
       </c>
       <c r="O30">
         <f>AVERAGE(O22:O29)</f>
-        <v>0.63019023043664679</v>
+        <v>0.51519939794934333</v>
       </c>
     </row>
   </sheetData>

--- a/results/Comparison_correct.xlsx
+++ b/results/Comparison_correct.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
   <si>
     <t>USING DECISION TREE AS CLASSIFIER</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>olfaction</t>
+  </si>
+  <si>
+    <t>runs</t>
   </si>
 </sst>
 </file>
@@ -489,11 +492,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
@@ -536,6 +542,9 @@
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -568,6 +577,9 @@
       <c r="G7" s="1">
         <v>293.04720424999999</v>
       </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
@@ -600,6 +612,9 @@
       <c r="G8" s="1">
         <v>477.02404349999898</v>
       </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
       <c r="K8" t="s">
         <v>11</v>
       </c>
@@ -632,6 +647,9 @@
       <c r="G9">
         <v>0.60081374999999904</v>
       </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
@@ -664,6 +682,9 @@
       <c r="G10" s="1">
         <v>0.61270000000000002</v>
       </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
@@ -696,6 +717,9 @@
       <c r="G11" s="1">
         <v>68.187651499999902</v>
       </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
@@ -728,6 +752,9 @@
       <c r="G12" s="1">
         <v>84.200227124999998</v>
       </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
       <c r="K12" t="s">
         <v>17</v>
       </c>
@@ -760,6 +787,9 @@
       <c r="G13">
         <v>0.86744185714285704</v>
       </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
       <c r="K13" t="s">
         <v>18</v>
       </c>
@@ -791,6 +821,9 @@
       </c>
       <c r="G14" s="1">
         <v>2945.4223541666602</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
@@ -816,6 +849,9 @@
       <c r="E15" s="4"/>
       <c r="G15">
         <v>10.283752478134099</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>34</v>
@@ -1244,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>

--- a/results/Comparison_correct.xlsx
+++ b/results/Comparison_correct.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="36">
   <si>
     <t xml:space="preserve">USING DECISION TREE AS CLASSIFIER</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">Genetic Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
     <t xml:space="preserve">runs</t>
   </si>
   <si>
@@ -71,30 +74,30 @@
     <t xml:space="preserve">scm1d</t>
   </si>
   <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scm20d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water-quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">skip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scm20d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water-quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olfaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">AUROC</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
   </si>
   <si>
     <t xml:space="preserve">corel5k</t>
@@ -286,45 +286,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:P33"/>
+  <dimension ref="C2:Q33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
@@ -343,25 +346,31 @@
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>335.522344375</v>
@@ -376,27 +385,30 @@
         <v>293.04720425</v>
       </c>
       <c r="H7" s="0" t="n">
+        <v>218.810868125</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="4" t="n">
         <v>240.693775</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="N7" s="5" t="n">
         <v>227.7623975</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>232.545646875</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>229.98624375</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>507.864773125</v>
@@ -411,27 +423,30 @@
         <v>477.024043499999</v>
       </c>
       <c r="H8" s="0" t="n">
+        <v>356.123936875</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="4" t="n">
         <v>395.100456875</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="N8" s="5" t="n">
         <v>379.34393125</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>394.5179975</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>385.13324875</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>5.04009125</v>
@@ -446,27 +461,30 @@
         <v>0.600813749999999</v>
       </c>
       <c r="H9" s="0" t="n">
+        <v>0.55923875</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="4" t="n">
         <v>0.42858</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="N9" s="5" t="n">
         <v>0.412795</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>0.4157375</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>0.417603749999999</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>5.04321</v>
@@ -481,27 +499,30 @@
         <v>0.6127</v>
       </c>
       <c r="H10" s="0" t="n">
+        <v>0.565155</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4" t="n">
         <v>0.87113</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="N10" s="5" t="n">
         <v>0.7214025</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>0.7962725</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>0.7748125</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>79.86608875</v>
@@ -510,31 +531,34 @@
         <v>68.365613125</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>68.1876514999999</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4" t="n">
         <v>53.58701125</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="N11" s="5" t="n">
         <v>49.55937625</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>49.7382675</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
         <v>18</v>
       </c>
@@ -551,25 +575,28 @@
         <v>84.200227125</v>
       </c>
       <c r="H12" s="0" t="n">
+        <v>79.739714375</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="M12" s="4" t="n">
         <v>66.070739375</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="N12" s="5" t="n">
         <v>64.81183875</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="0" t="n">
         <v>64.859575625</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
         <v>19</v>
       </c>
@@ -586,25 +613,28 @@
         <v>0.867441857142857</v>
       </c>
       <c r="H13" s="0" t="n">
+        <v>0.831125714285714</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="M13" s="6" t="n">
         <v>0.832445714285714</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="N13" s="6" t="n">
         <v>0.825584285714286</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>0.825491428571428</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="P13" s="1" t="n">
         <v>0.824575</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
         <v>20</v>
       </c>
@@ -621,21 +651,24 @@
         <v>2945.42235416666</v>
       </c>
       <c r="H14" s="0" t="n">
+        <v>2363.7703875</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>2959.88022583333</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="N14" s="4" t="n">
         <v>2938.12863416667</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>2957.15324666667</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>2945.42235416666</v>
       </c>
     </row>
@@ -652,23 +685,23 @@
       <c r="G15" s="0" t="n">
         <v>10.2837524781341</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="L15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>9.73658785228377</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>10.0457223517979</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>9.83314810495625</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
@@ -680,50 +713,51 @@
         <f aca="false">AVERAGE(E7:E14)</f>
         <v>530.291932020089</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">AVERAGE(F7:F14)</f>
-        <v>553.986396369047</v>
+      <c r="F16" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">AVERAGE(G7:G14)</f>
         <v>483.7453045186</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="H16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <f aca="false">AVERAGE(L7:L14)</f>
-        <v>464.683045505952</v>
       </c>
       <c r="M16" s="0" t="n">
         <f aca="false">AVERAGE(M7:M14)</f>
-        <v>457.695744962798</v>
+        <v>464.683045505952</v>
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">AVERAGE(N7:N14)</f>
-        <v>597.709065411707</v>
+        <v>457.695744962798</v>
       </c>
       <c r="O16" s="0" t="n">
         <f aca="false">AVERAGE(O7:O14)</f>
+        <v>597.709065411707</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">AVERAGE(P7:P14)</f>
         <v>459.644585130208</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
@@ -739,25 +773,31 @@
       <c r="G23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>1449696.48115875</v>
@@ -771,25 +811,28 @@
       <c r="G24" s="1" t="n">
         <v>969418.822309125</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="4" t="n">
+      <c r="H24" s="0" t="n">
+        <v>355498.88914875</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="4" t="n">
         <v>532364.60696375</v>
       </c>
-      <c r="M24" s="6" t="n">
+      <c r="N24" s="6" t="n">
         <v>531129.18718375</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>522310.814310625</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>519432.865420624</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>2114498.78511125</v>
@@ -803,25 +846,28 @@
       <c r="G25" s="0" t="n">
         <v>1921188.99825175</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="4" t="n">
+      <c r="H25" s="0" t="n">
+        <v>623643.08629125</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="4" t="n">
         <v>974421.037385</v>
       </c>
-      <c r="M25" s="6" t="n">
+      <c r="N25" s="6" t="n">
         <v>915283.118903125</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>941780.30508375</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>942517.11103625</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>210.33799125</v>
@@ -835,25 +881,28 @@
       <c r="G26" s="0" t="n">
         <v>3.576215</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="4" t="n">
+      <c r="H26" s="0" t="n">
+        <v>1.81890875</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="4" t="n">
         <v>2.30629</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="N26" s="6" t="n">
         <v>1.5901125</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>1.89784125</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>1.956415</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>210.275505</v>
@@ -867,25 +916,28 @@
       <c r="G27" s="1" t="n">
         <v>3.60863</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="4" t="n">
+      <c r="H27" s="0" t="n">
+        <v>1.86238</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="4" t="n">
         <v>7.3471375</v>
       </c>
-      <c r="M27" s="6" t="n">
+      <c r="N27" s="6" t="n">
         <v>4.73616625</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>5.3956675</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>6.04918875</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>15357.2590825</v>
@@ -894,28 +946,29 @@
         <v>13034.343416875</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>12721.214303125</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="4" t="n">
+      <c r="H28" s="1"/>
+      <c r="L28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="4" t="n">
         <v>7323.444506875</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="N28" s="6" t="n">
         <v>6601.73254125</v>
       </c>
-      <c r="N28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="0" t="n">
         <v>6615.592026875</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
         <v>18</v>
       </c>
@@ -931,23 +984,26 @@
       <c r="G29" s="1" t="n">
         <v>18963.374284375</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="H29" s="0" t="n">
+        <v>16189.54034125</v>
+      </c>
+      <c r="L29" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="M29" s="4" t="n">
         <v>9864.792405</v>
       </c>
-      <c r="M29" s="6" t="n">
+      <c r="N29" s="6" t="n">
         <v>9742.48709375</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="0" t="n">
         <v>9678.538551875</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
         <v>19</v>
       </c>
@@ -963,23 +1019,26 @@
       <c r="G30" s="0" t="n">
         <v>1.52870171428571</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="H30" s="0" t="n">
+        <v>1.39094642857143</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="M30" s="6" t="n">
         <v>1.35214428571429</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="N30" s="6" t="n">
         <v>1.353015</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>1.35027928571429</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>1.34330857142857</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
         <v>20</v>
       </c>
@@ -998,22 +1057,26 @@
       <c r="G31" s="7" t="n">
         <v>171559164.254151</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="H31" s="0" t="n">
+        <f aca="false">3.5878115010802*10^7</f>
+        <v>35878115.010802</v>
+      </c>
+      <c r="L31" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <f aca="false">3.95277925178316*10^7</f>
         <v>39527792.5178316</v>
       </c>
-      <c r="M31" s="4" t="n">
+      <c r="N31" s="4" t="n">
         <f aca="false">3.15486468098213*10^7</f>
         <v>31548646.8098213</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <f aca="false">4.20245017582565*10^7</f>
         <v>42024501.7582565</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="P31" s="7" t="n">
         <v>171559164.254151</v>
       </c>
     </row>
@@ -1030,20 +1093,20 @@
       <c r="G32" s="0" t="n">
         <v>416.800873858114</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="L32" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>345.620328862974</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>354.268978911564</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>348.323910787172</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1055,31 +1118,32 @@
         <f aca="false">AVERAGE(E24:E31)</f>
         <v>5788830.9054315</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <f aca="false">AVERAGE(F24:F31)</f>
-        <v>5637314.22289729</v>
+      <c r="F33" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">AVERAGE(G24:G31)</f>
         <v>21810183.1721058</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="H33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <f aca="false">AVERAGE(L24:L31)</f>
-        <v>5131472.175583</v>
       </c>
       <c r="M33" s="0" t="n">
         <f aca="false">AVERAGE(M24:M31)</f>
+        <v>5131472.175583</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">AVERAGE(N24:N31)</f>
         <v>4126426.37685462</v>
       </c>
-      <c r="N33" s="0" t="n">
-        <f aca="false">AVERAGE(N24:N30)</f>
-        <v>292819.952636482</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <f aca="false">AVERAGE(O24:O30)</f>
+      <c r="O33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">AVERAGE(P24:P30)</f>
         <v>211179.065135421</v>
       </c>
     </row>
@@ -1102,7 +1166,7 @@
   <dimension ref="C2:T30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+      <selection pane="topLeft" activeCell="R26" activeCellId="0" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1126,21 +1190,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T5" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
@@ -1156,6 +1220,9 @@
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K6" s="0" t="s">
         <v>5</v>
       </c>
@@ -1171,10 +1238,13 @@
       <c r="O6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.760087652631579</v>
@@ -1183,13 +1253,16 @@
         <v>0.658597752631579</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.69003083368421</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0.8829568</v>
@@ -1198,13 +1271,16 @@
         <v>0.885311642105263</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>0.865238012631578</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1215,11 +1291,14 @@
         <v>0.546897320588236</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.49731784117647</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1230,13 +1309,16 @@
         <v>0.670680995454545</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>0.671090432620321</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1252,6 +1334,9 @@
       <c r="G9" s="0" t="n">
         <v>0.7468556</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>0.803524516666666</v>
+      </c>
       <c r="K9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1353,7 @@
         <v>0.851374136666666</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
@@ -1284,6 +1369,9 @@
       <c r="G10" s="0" t="n">
         <v>0.595375221428571</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>0.680716585714286</v>
+      </c>
       <c r="K10" s="8" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1388,7 @@
         <v>0.687079895714285</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1316,6 +1404,9 @@
       <c r="G11" s="0" t="n">
         <v>0.67010714</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>0.765753414285714</v>
+      </c>
       <c r="K11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1423,7 @@
         <v>0.783781634285714</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
@@ -1343,11 +1434,14 @@
         <v>0.848220474074074</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.847624</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K12" s="8" t="s">
         <v>32</v>
       </c>
@@ -1358,13 +1452,16 @@
         <v>0.837963344444444</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>0.832610325925925</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1375,11 +1472,14 @@
         <v>0.618463663366337</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.750178299009901</v>
       </c>
+      <c r="H13" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1390,13 +1490,16 @@
         <v>0.819125497029703</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>0.825732590099009</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1408,14 +1511,16 @@
         <f aca="false">AVERAGE(E6:E13)</f>
         <v>0.660539454243978</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">AVERAGE(F6:F13)</f>
-        <v>0.679279330952381</v>
+      <c r="F14" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">AVERAGE(G6:G13)</f>
         <v>0.685355562185593</v>
       </c>
+      <c r="H14" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
@@ -1470,6 +1575,9 @@
       <c r="G22" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K22" s="0" t="s">
         <v>5</v>
       </c>
@@ -1485,10 +1593,13 @@
       <c r="O22" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0.191176221052632</v>
@@ -1497,13 +1608,16 @@
         <v>0.281662705263158</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0.244951042105263</v>
       </c>
+      <c r="H23" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K23" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>0.558839336842105</v>
@@ -1512,13 +1626,13 @@
         <v>0.556641842105263</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>0.556114847368421</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1529,11 +1643,14 @@
         <v>0.0356504542780749</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0.0328030831550802</v>
       </c>
+      <c r="H24" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1544,13 +1661,13 @@
         <v>0.0697550767379679</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>0.0700636839572192</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="8" t="s">
         <v>29</v>
       </c>
@@ -1566,6 +1683,9 @@
       <c r="G25" s="0" t="n">
         <v>0.5745585</v>
       </c>
+      <c r="H25" s="4" t="n">
+        <v>0.6557958</v>
+      </c>
       <c r="K25" s="8" t="s">
         <v>29</v>
       </c>
@@ -1582,7 +1702,7 @@
         <v>0.73659129</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="8" t="s">
         <v>30</v>
       </c>
@@ -1598,6 +1718,9 @@
       <c r="G26" s="0" t="n">
         <v>0.395336848571428</v>
       </c>
+      <c r="H26" s="4" t="n">
+        <v>0.471037671428571</v>
+      </c>
       <c r="K26" s="8" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1737,7 @@
         <v>0.505459242857142</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="8" t="s">
         <v>31</v>
       </c>
@@ -1630,6 +1753,9 @@
       <c r="G27" s="0" t="n">
         <v>0.650777274285714</v>
       </c>
+      <c r="H27" s="4" t="n">
+        <v>0.744270414285714</v>
+      </c>
       <c r="K27" s="8" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1772,7 @@
         <v>0.767790457142857</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="8" t="s">
         <v>32</v>
       </c>
@@ -1657,11 +1783,14 @@
         <v>0.694914559259259</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>0.696712044444444</v>
       </c>
+      <c r="H28" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K28" s="8" t="s">
         <v>32</v>
       </c>
@@ -1672,13 +1801,13 @@
         <v>0.627223622222222</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>0.584995314814814</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
@@ -1689,11 +1818,14 @@
         <v>0.13333282970297</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0.111245755445544</v>
       </c>
+      <c r="H29" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K29" s="8" t="s">
         <v>33</v>
       </c>
@@ -1704,13 +1836,13 @@
         <v>0.368793966336634</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>0.38538094950495</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1722,14 +1854,16 @@
         <f aca="false">AVERAGE(E22:E29)</f>
         <v>0.383479914412059</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <f aca="false">AVERAGE(F22:F29)</f>
-        <v>0.540676280952381</v>
+      <c r="F30" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">AVERAGE(G22:G29)</f>
         <v>0.386626364001068</v>
       </c>
+      <c r="H30" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1741,13 +1875,15 @@
         <f aca="false">AVERAGE(M22:M29)</f>
         <v>0.518302928948597</v>
       </c>
-      <c r="N30" s="0" t="n">
-        <f aca="false">AVERAGE(N22:N29)</f>
-        <v>0.673681916666667</v>
+      <c r="N30" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="O30" s="0" t="n">
         <f aca="false">AVERAGE(O22:O29)</f>
         <v>0.515199397949343</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
